--- a/0_raw_data/Patagona_Cormack-Jolly-Seber_06-18-21_ForDryad.xlsx
+++ b/0_raw_data/Patagona_Cormack-Jolly-Seber_06-18-21_ForDryad.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jessie/Dropbox (MSBbirds)/Rdirectory/Hummingbird_Harness_Methods/0_raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E6628-56E0-2542-A63F-5513370E57E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD70C99-DA7D-9A4D-8D31-D19E4AEE19D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="30400" windowHeight="17340" activeTab="1" xr2:uid="{1840E4B5-E867-114C-B364-324844162289}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pgig CJS data" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Pgig_CJS_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Pgig_CJS_Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pgig CJS data'!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pgig_CJS_data!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
